--- a/time-tracker.xlsx
+++ b/time-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>MINUTES</t>
   </si>
@@ -29,13 +29,16 @@
   </si>
   <si>
     <t>Kay</t>
+  </si>
+  <si>
+    <t>https://github.com/chat-loc/chatloc.github.io/commit/5b453f6698e6f71651e4867989b178d7997049c7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,6 +56,14 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="1942 report"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -72,16 +83,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -387,7 +401,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -397,7 +411,7 @@
     <col min="4" max="4" width="9.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="18" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="92" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -423,11 +437,17 @@
         <v>44026</v>
       </c>
       <c r="E3" s="2">
-        <v>60</v>
+        <v>360</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/time-tracker.xlsx
+++ b/time-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>MINUTES</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>https://github.com/chat-loc/chatloc.github.io/commit/5b453f6698e6f71651e4867989b178d7997049c7</t>
+  </si>
+  <si>
+    <t>https://github.com/chat-loc/chatloc.github.io/commit/8d6ef75e89a64a98c585ce4a538bb63216b75358</t>
   </si>
 </sst>
 </file>
@@ -398,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -443,11 +446,26 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>44026</v>
+      </c>
+      <c r="E4" s="2">
+        <v>60</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/time-tracker.xlsx
+++ b/time-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>MINUTES</t>
   </si>
@@ -35,25 +35,31 @@
   </si>
   <si>
     <t>https://github.com/chat-loc/chatloc.github.io/commit/8d6ef75e89a64a98c585ce4a538bb63216b75358</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>Designed login module and introduced project theme</t>
+  </si>
+  <si>
+    <t>Set up Express server</t>
+  </si>
+  <si>
+    <t>Set up Controllers and Express-handlebars</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="1942 report"/>
     </font>
     <font>
       <sz val="14"/>
@@ -67,6 +73,23 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="2">
@@ -88,14 +111,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -401,71 +425,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="92" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="2" width="9.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="92" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3">
+      <c r="B3" s="3"/>
+      <c r="C3" s="5">
         <v>44026</v>
       </c>
-      <c r="E3" s="2">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
         <v>360</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="H3" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3">
+      <c r="B4" s="3"/>
+      <c r="C4" s="5">
         <v>44026</v>
       </c>
-      <c r="E4" s="2">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
         <v>60</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="5">
+        <v>44026</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <v>60</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1"/>
     <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/time-tracker.xlsx
+++ b/time-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>MINUTES</t>
   </si>
@@ -47,24 +47,25 @@
   </si>
   <si>
     <t>Set up Controllers and Express-handlebars</t>
+  </si>
+  <si>
+    <t>https://github.com/chat-loc/chatloc.github.io/commit/45c76a95645be3bca0cea6a7b01ed817519e2d2e</t>
+  </si>
+  <si>
+    <t>Set up User Model, MongoDB connection (Atlas)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="1942 report"/>
     </font>
     <font>
       <u/>
@@ -111,15 +112,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -425,111 +425,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="92" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="92" style="2" customWidth="1"/>
+    <col min="8" max="8" width="60.140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>44026</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>360</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>44026</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>60</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>44026</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>60</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E6" s="2">
+        <v>80</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -537,8 +533,9 @@
     <hyperlink ref="G3" r:id="rId1"/>
     <hyperlink ref="G4" r:id="rId2"/>
     <hyperlink ref="G5" r:id="rId3"/>
+    <hyperlink ref="G6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/time-tracker.xlsx
+++ b/time-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>MINUTES</t>
   </si>
@@ -40,9 +40,6 @@
     <t>NOTES</t>
   </si>
   <si>
-    <t>Designed login module and introduced project theme</t>
-  </si>
-  <si>
     <t>Set up Express server</t>
   </si>
   <si>
@@ -53,6 +50,15 @@
   </si>
   <si>
     <t>Set up User Model, MongoDB connection (Atlas)</t>
+  </si>
+  <si>
+    <t>https://github.com/chat-loc/chatloc.github.io/commit/5adae418b3a45a7a720cd2cf1a1f18654c61702f</t>
+  </si>
+  <si>
+    <t>Create Login module</t>
+  </si>
+  <si>
+    <t>Design Registration module and introduced project theme</t>
   </si>
 </sst>
 </file>
@@ -425,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -474,7 +480,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -491,7 +497,7 @@
         <v>6</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -508,7 +514,7 @@
         <v>6</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -522,10 +528,27 @@
         <v>80</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>44032</v>
+      </c>
+      <c r="E7" s="2">
+        <v>40</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -534,8 +557,9 @@
     <hyperlink ref="G4" r:id="rId2"/>
     <hyperlink ref="G5" r:id="rId3"/>
     <hyperlink ref="G6" r:id="rId4"/>
+    <hyperlink ref="G7" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/time-tracker.xlsx
+++ b/time-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>MINUTES</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>Design Registration module and introduced project theme</t>
+  </si>
+  <si>
+    <t>https://github.com/chat-loc/chatloc.github.io/commit/20e1f9174e1e0fe7a9632a09e14cce2207b1dbb9</t>
+  </si>
+  <si>
+    <t>Implement validation on login and reg modules</t>
   </si>
 </sst>
 </file>
@@ -120,12 +126,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -431,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -551,6 +558,23 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44033</v>
+      </c>
+      <c r="E8" s="2">
+        <v>200</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1"/>
@@ -558,8 +582,9 @@
     <hyperlink ref="G5" r:id="rId3"/>
     <hyperlink ref="G6" r:id="rId4"/>
     <hyperlink ref="G7" r:id="rId5"/>
+    <hyperlink ref="G8" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/time-tracker.xlsx
+++ b/time-tracker.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>MINUTES</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>Implement validation on login and reg modules</t>
+  </si>
+  <si>
+    <t>https://github.com/chat-loc/chatloc.github.io/commit/0875225b922b75c89b5a27c6aaa299c8d0848906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement session auth to all pages, connect to Opencage and Mapbox API </t>
   </si>
 </sst>
 </file>
@@ -438,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -452,7 +458,7 @@
     <col min="5" max="5" width="18" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="92" style="2" customWidth="1"/>
-    <col min="8" max="8" width="60.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="109.140625" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -573,6 +579,23 @@
       </c>
       <c r="H8" s="2" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44035</v>
+      </c>
+      <c r="E9" s="2">
+        <v>400</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -583,8 +606,9 @@
     <hyperlink ref="G6" r:id="rId4"/>
     <hyperlink ref="G7" r:id="rId5"/>
     <hyperlink ref="G8" r:id="rId6"/>
+    <hyperlink ref="G9" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/time-tracker.xlsx
+++ b/time-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>MINUTES</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t xml:space="preserve">Implement session auth to all pages, connect to Opencage and Mapbox API </t>
+  </si>
+  <si>
+    <t>https://github.com/chat-loc/chatloc.github.io/commit/8b7b4939abb291100c7f578a28b303f3175f105a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List room user can join based on location and origin </t>
   </si>
 </sst>
 </file>
@@ -444,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -598,6 +604,23 @@
         <v>18</v>
       </c>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4">
+        <v>44035</v>
+      </c>
+      <c r="E10" s="2">
+        <v>85</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1"/>
@@ -607,8 +630,9 @@
     <hyperlink ref="G7" r:id="rId5"/>
     <hyperlink ref="G8" r:id="rId6"/>
     <hyperlink ref="G9" r:id="rId7"/>
+    <hyperlink ref="G10" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/time-tracker.xlsx
+++ b/time-tracker.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1626B810-9D39-47D8-B068-AD8CC0B4FCAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>MINUTES</t>
   </si>
@@ -77,12 +78,30 @@
   </si>
   <si>
     <t xml:space="preserve">List room user can join based on location and origin </t>
+  </si>
+  <si>
+    <t>Aman</t>
+  </si>
+  <si>
+    <t>https://github.com/chat-loc/chatloc.github.io/commit/c6f69a87d1698e04e60acdd479490a2a3242d193</t>
+  </si>
+  <si>
+    <t>Integrated news api for chat suggestion feature issue #10. Waiting for chat module for display of the feature.</t>
+  </si>
+  <si>
+    <t>Meeting with group members regarding the functionality of the project.</t>
+  </si>
+  <si>
+    <t>Helped Khushboo with responsiveness of the website.</t>
+  </si>
+  <si>
+    <t>Working on the Chat functionality.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -239,6 +258,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -274,6 +310,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -449,26 +502,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2" customWidth="1"/>
+    <col min="1" max="2" width="9.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="18" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="92" style="2" customWidth="1"/>
-    <col min="8" max="8" width="109.140625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="8" max="8" width="109.109375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -485,7 +538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -502,7 +555,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -519,7 +572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -536,7 +589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -553,7 +606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -570,7 +623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -587,7 +640,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -604,7 +657,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -621,18 +674,81 @@
         <v>20</v>
       </c>
     </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="4">
+        <v>44026</v>
+      </c>
+      <c r="E19" s="2">
+        <v>60</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="4">
+        <v>44031</v>
+      </c>
+      <c r="E20" s="2">
+        <v>120</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="4">
+        <v>44035</v>
+      </c>
+      <c r="E21" s="2">
+        <v>180</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="4">
+        <v>44036</v>
+      </c>
+      <c r="E22" s="2">
+        <v>180</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1"/>
-    <hyperlink ref="G4" r:id="rId2"/>
-    <hyperlink ref="G5" r:id="rId3"/>
-    <hyperlink ref="G6" r:id="rId4"/>
-    <hyperlink ref="G7" r:id="rId5"/>
-    <hyperlink ref="G8" r:id="rId6"/>
-    <hyperlink ref="G9" r:id="rId7"/>
-    <hyperlink ref="G10" r:id="rId8"/>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G20" r:id="rId9" xr:uid="{E39F9A79-20DE-4C26-BF2A-B770E025726C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/time-tracker.xlsx
+++ b/time-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>MINUTES</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t xml:space="preserve">List room user can join based on location and origin </t>
+  </si>
+  <si>
+    <t>https://github.com/chat-loc/chatloc.github.io/commit/acb93abf9822dec4fbcaf40b47b29ccba141609b</t>
+  </si>
+  <si>
+    <t>Build working prototype</t>
   </si>
 </sst>
 </file>
@@ -450,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -621,6 +627,23 @@
         <v>20</v>
       </c>
     </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4">
+        <v>44036</v>
+      </c>
+      <c r="E11" s="2">
+        <v>400</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1"/>
@@ -631,8 +654,9 @@
     <hyperlink ref="G8" r:id="rId6"/>
     <hyperlink ref="G9" r:id="rId7"/>
     <hyperlink ref="G10" r:id="rId8"/>
+    <hyperlink ref="G11" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/time-tracker.xlsx
+++ b/time-tracker.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FED1A08-C6B1-47B1-BF43-28AB355A7657}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>MINUTES</t>
   </si>
@@ -83,12 +84,33 @@
   </si>
   <si>
     <t>Build working prototype</t>
+  </si>
+  <si>
+    <t>https://github.com/chat-loc/chatloc.github.io/commit/a28fef4d8582293946dbff07fa83c1827432158f</t>
+  </si>
+  <si>
+    <t>Creating chat user interface</t>
+  </si>
+  <si>
+    <t>Khushboo</t>
+  </si>
+  <si>
+    <t>https://github.com/chat-loc/chatloc.github.io/pull/26/commits/3398a9cf0b0f7920890fe363bfc6e728045f48c7</t>
+  </si>
+  <si>
+    <t>Created landing page, css files and login page</t>
+  </si>
+  <si>
+    <t>https://github.com/chat-loc/chatloc.github.io/commit/a45398dcb5d9e7db44ce3e49223b552742ae46c3</t>
+  </si>
+  <si>
+    <t>Making login logout and room list responsive</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -245,6 +267,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -280,6 +319,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -455,26 +511,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="18" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="92" style="2" customWidth="1"/>
-    <col min="8" max="8" width="109.140625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="8" max="8" width="109.109375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -491,7 +548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -508,7 +565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -525,7 +582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -542,7 +599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -559,7 +616,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -576,7 +633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -593,7 +650,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -610,7 +667,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -627,7 +684,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -644,19 +701,73 @@
         <v>22</v>
       </c>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4">
+        <v>44023</v>
+      </c>
+      <c r="E12" s="2">
+        <v>450</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="4">
+        <v>44032</v>
+      </c>
+      <c r="E13" s="2">
+        <v>400</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4">
+        <v>44014</v>
+      </c>
+      <c r="E14" s="2">
+        <v>390</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1"/>
-    <hyperlink ref="G4" r:id="rId2"/>
-    <hyperlink ref="G5" r:id="rId3"/>
-    <hyperlink ref="G6" r:id="rId4"/>
-    <hyperlink ref="G7" r:id="rId5"/>
-    <hyperlink ref="G8" r:id="rId6"/>
-    <hyperlink ref="G9" r:id="rId7"/>
-    <hyperlink ref="G10" r:id="rId8"/>
-    <hyperlink ref="G11" r:id="rId9"/>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G12" r:id="rId10" xr:uid="{8B7909D2-6BEC-4DC4-A3E6-83C94855DB76}"/>
+    <hyperlink ref="G13" r:id="rId11" xr:uid="{6B4A4869-0BA1-4FE6-860D-648BEC983EAE}"/>
+    <hyperlink ref="G14" r:id="rId12" xr:uid="{C815495F-6B54-4033-B864-0AB9DDD24A0C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/time-tracker.xlsx
+++ b/time-tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FED1A08-C6B1-47B1-BF43-28AB355A7657}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE242876-BE71-4FC8-9F13-65C599BA7315}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>MINUTES</t>
   </si>
@@ -104,7 +104,22 @@
     <t>https://github.com/chat-loc/chatloc.github.io/commit/a45398dcb5d9e7db44ce3e49223b552742ae46c3</t>
   </si>
   <si>
-    <t>Making login logout and room list responsive</t>
+    <t>https://github.com/chat-loc/chatloc.github.io/commit/286ca9c3a8555e0c7234327dfac620043f4d2921</t>
+  </si>
+  <si>
+    <t>https://github.com/chat-loc/chatloc.github.io/commit/fa82cd20851166d39e7316799dab1363fe4a4404</t>
+  </si>
+  <si>
+    <t>Making login logout and room list responsive with Aman</t>
+  </si>
+  <si>
+    <t>dark mode theme with Aman</t>
+  </si>
+  <si>
+    <t>merging the dark mode theme to master branch with Aman</t>
+  </si>
+  <si>
+    <t>Khushboo / Aman</t>
   </si>
 </sst>
 </file>
@@ -512,15 +527,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="25.5546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.109375" style="2" customWidth="1"/>
@@ -737,7 +752,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C14" s="4">
         <v>44014</v>
@@ -749,7 +764,41 @@
         <v>28</v>
       </c>
       <c r="H14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="4">
+        <v>44050</v>
+      </c>
+      <c r="E15" s="2">
+        <v>250</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>29</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="4">
+        <v>44051</v>
+      </c>
+      <c r="E16" s="2">
+        <v>10</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -766,8 +815,10 @@
     <hyperlink ref="G12" r:id="rId10" xr:uid="{8B7909D2-6BEC-4DC4-A3E6-83C94855DB76}"/>
     <hyperlink ref="G13" r:id="rId11" xr:uid="{6B4A4869-0BA1-4FE6-860D-648BEC983EAE}"/>
     <hyperlink ref="G14" r:id="rId12" xr:uid="{C815495F-6B54-4033-B864-0AB9DDD24A0C}"/>
+    <hyperlink ref="G15" r:id="rId13" xr:uid="{838E5276-EFE4-4AB6-9D19-E2DDD6BDE60D}"/>
+    <hyperlink ref="G16" r:id="rId14" xr:uid="{A9BB5117-1889-46FE-B16F-2AE07B15FE06}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/time-tracker.xlsx
+++ b/time-tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE242876-BE71-4FC8-9F13-65C599BA7315}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B80145-45E5-475A-AE65-E72DC6EEAA56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
   <si>
     <t>MINUTES</t>
   </si>
@@ -120,6 +120,39 @@
   </si>
   <si>
     <t>Khushboo / Aman</t>
+  </si>
+  <si>
+    <t>Aman</t>
+  </si>
+  <si>
+    <t>Meeting with group members regarding the functionality of the project.</t>
+  </si>
+  <si>
+    <t>https://github.com/chat-loc/chatloc.github.io/commit/c6f69a87d1698e04e60acdd479490a2a3242d193</t>
+  </si>
+  <si>
+    <t>Integrated news api for chat suggestion feature issue #10. Waiting for chat module for display of the feature.</t>
+  </si>
+  <si>
+    <t>Helped Khushboo with responsiveness of the website.</t>
+  </si>
+  <si>
+    <t>Working on the Chat functionality.</t>
+  </si>
+  <si>
+    <t>Aman / Khushboo</t>
+  </si>
+  <si>
+    <t>https://github.com/amnsworld/chatapp-react</t>
+  </si>
+  <si>
+    <t>Reach conversion- Login page, register module, chatroom module</t>
+  </si>
+  <si>
+    <t>Reach conversion- roomlist module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reach conversion- not found module, </t>
   </si>
 </sst>
 </file>
@@ -181,11 +214,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
@@ -527,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -735,7 +772,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C13" s="4">
         <v>44032</v>
@@ -799,6 +836,135 @@
       </c>
       <c r="H16" s="2" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="8">
+        <v>44026</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7">
+        <v>60</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="8">
+        <v>44031</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7">
+        <v>120</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="8">
+        <v>44035</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7">
+        <v>180</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="8">
+        <v>44036</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7">
+        <v>180</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="8">
+        <v>44017</v>
+      </c>
+      <c r="E24" s="2">
+        <v>200</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="8">
+        <v>44018</v>
+      </c>
+      <c r="E25" s="7">
+        <v>150</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="8">
+        <v>44018</v>
+      </c>
+      <c r="E26" s="7">
+        <v>120</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -817,8 +983,14 @@
     <hyperlink ref="G14" r:id="rId12" xr:uid="{C815495F-6B54-4033-B864-0AB9DDD24A0C}"/>
     <hyperlink ref="G15" r:id="rId13" xr:uid="{838E5276-EFE4-4AB6-9D19-E2DDD6BDE60D}"/>
     <hyperlink ref="G16" r:id="rId14" xr:uid="{A9BB5117-1889-46FE-B16F-2AE07B15FE06}"/>
+    <hyperlink ref="G21" r:id="rId15" xr:uid="{E39F9A79-20DE-4C26-BF2A-B770E025726C}"/>
+    <hyperlink ref="G24" r:id="rId16" xr:uid="{231A1224-8580-46D0-A207-E13FF8877374}"/>
+    <hyperlink ref="G25" r:id="rId17" xr:uid="{B8917E94-C246-48D5-8046-EC1D9727E618}"/>
+    <hyperlink ref="G26" r:id="rId18" xr:uid="{EB4D0948-667C-4E27-83A8-5CF85CE1F428}"/>
+    <hyperlink ref="G23" r:id="rId19" xr:uid="{5B538DF3-4226-4F46-90D2-F0ACC400E678}"/>
+    <hyperlink ref="G22" r:id="rId20" xr:uid="{07A95ACA-3A32-483F-B07F-34A43CD99AA0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
--- a/time-tracker.xlsx
+++ b/time-tracker.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B80145-45E5-475A-AE65-E72DC6EEAA56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>MINUTES</t>
   </si>
@@ -146,19 +145,31 @@
     <t>https://github.com/amnsworld/chatapp-react</t>
   </si>
   <si>
-    <t>Reach conversion- Login page, register module, chatroom module</t>
-  </si>
-  <si>
-    <t>Reach conversion- roomlist module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reach conversion- not found module, </t>
+    <t>React conversion- Login page, register module, chatroom module</t>
+  </si>
+  <si>
+    <t>React conversion- roomlist module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">React conversion- not found module, </t>
+  </si>
+  <si>
+    <t>Convert app to React</t>
+  </si>
+  <si>
+    <t>https://github.com/chat-loc/chatloc.github.io/commit/a163e7993922b9cb53cd31d23468ec79c11d9f12</t>
+  </si>
+  <si>
+    <t>https://github.com/chat-loc/chatloc.github.io/commit/ddc5dea7fdecb8e285a2ddf5530b229f41736e5d</t>
+  </si>
+  <si>
+    <t>Convert app to React II (Heroku MERN Deployment Reconfig)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -319,23 +330,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -371,23 +365,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -563,27 +540,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="18" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="92" style="2" customWidth="1"/>
-    <col min="8" max="8" width="109.109375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="2"/>
+    <col min="8" max="8" width="109.140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -600,7 +577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -617,7 +594,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -634,7 +611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -651,7 +628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -668,7 +645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -685,7 +662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -702,7 +679,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -719,7 +696,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -736,7 +713,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -753,244 +730,282 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="8">
+        <v>44028</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="8">
+        <v>44028</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="8"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="8"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C16" s="4">
         <v>44023</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E16" s="2">
         <v>450</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C17" s="4">
         <v>44032</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E17" s="2">
         <v>400</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C18" s="4">
         <v>44014</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E18" s="2">
         <v>390</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C19" s="4">
         <v>44050</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E19" s="2">
         <v>250</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C20" s="4">
         <v>44051</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E20" s="2">
         <v>10</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="8">
+      <c r="B24" s="6"/>
+      <c r="C24" s="8">
         <v>44026</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7">
+      <c r="D24" s="6"/>
+      <c r="E24" s="7">
         <v>60</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="7" t="s">
+      <c r="F24" s="6"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="8">
+      <c r="B25" s="6"/>
+      <c r="C25" s="8">
         <v>44031</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7">
+      <c r="D25" s="6"/>
+      <c r="E25" s="7">
         <v>120</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="9" t="s">
+      <c r="F25" s="6"/>
+      <c r="G25" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H25" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="8">
-        <v>44035</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7">
-        <v>180</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="8">
-        <v>44036</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7">
-        <v>180</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="8">
-        <v>44017</v>
-      </c>
-      <c r="E24" s="2">
-        <v>200</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="8">
-        <v>44018</v>
-      </c>
-      <c r="E25" s="7">
-        <v>150</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>41</v>
       </c>
+      <c r="B26" s="6"/>
       <c r="C26" s="8">
+        <v>44035</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7">
+        <v>180</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="8">
+        <v>44036</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="7">
+        <v>180</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="8">
+        <v>44017</v>
+      </c>
+      <c r="E28" s="2">
+        <v>200</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="8">
         <v>44018</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E29" s="7">
+        <v>150</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="8">
+        <v>44018</v>
+      </c>
+      <c r="E30" s="7">
         <v>120</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G30" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H30" s="7" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G12" r:id="rId10" xr:uid="{8B7909D2-6BEC-4DC4-A3E6-83C94855DB76}"/>
-    <hyperlink ref="G13" r:id="rId11" xr:uid="{6B4A4869-0BA1-4FE6-860D-648BEC983EAE}"/>
-    <hyperlink ref="G14" r:id="rId12" xr:uid="{C815495F-6B54-4033-B864-0AB9DDD24A0C}"/>
-    <hyperlink ref="G15" r:id="rId13" xr:uid="{838E5276-EFE4-4AB6-9D19-E2DDD6BDE60D}"/>
-    <hyperlink ref="G16" r:id="rId14" xr:uid="{A9BB5117-1889-46FE-B16F-2AE07B15FE06}"/>
-    <hyperlink ref="G21" r:id="rId15" xr:uid="{E39F9A79-20DE-4C26-BF2A-B770E025726C}"/>
-    <hyperlink ref="G24" r:id="rId16" xr:uid="{231A1224-8580-46D0-A207-E13FF8877374}"/>
-    <hyperlink ref="G25" r:id="rId17" xr:uid="{B8917E94-C246-48D5-8046-EC1D9727E618}"/>
-    <hyperlink ref="G26" r:id="rId18" xr:uid="{EB4D0948-667C-4E27-83A8-5CF85CE1F428}"/>
-    <hyperlink ref="G23" r:id="rId19" xr:uid="{5B538DF3-4226-4F46-90D2-F0ACC400E678}"/>
-    <hyperlink ref="G22" r:id="rId20" xr:uid="{07A95ACA-3A32-483F-B07F-34A43CD99AA0}"/>
+    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G5" r:id="rId3"/>
+    <hyperlink ref="G6" r:id="rId4"/>
+    <hyperlink ref="G7" r:id="rId5"/>
+    <hyperlink ref="G8" r:id="rId6"/>
+    <hyperlink ref="G9" r:id="rId7"/>
+    <hyperlink ref="G10" r:id="rId8"/>
+    <hyperlink ref="G11" r:id="rId9"/>
+    <hyperlink ref="G16" r:id="rId10"/>
+    <hyperlink ref="G17" r:id="rId11"/>
+    <hyperlink ref="G18" r:id="rId12"/>
+    <hyperlink ref="G19" r:id="rId13"/>
+    <hyperlink ref="G20" r:id="rId14"/>
+    <hyperlink ref="G25" r:id="rId15"/>
+    <hyperlink ref="G28" r:id="rId16"/>
+    <hyperlink ref="G29" r:id="rId17"/>
+    <hyperlink ref="G30" r:id="rId18"/>
+    <hyperlink ref="G27" r:id="rId19"/>
+    <hyperlink ref="G26" r:id="rId20"/>
+    <hyperlink ref="G12" r:id="rId21"/>
+    <hyperlink ref="G13" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
--- a/time-tracker.xlsx
+++ b/time-tracker.xlsx
@@ -58,9 +58,6 @@
     <t>Create Login module</t>
   </si>
   <si>
-    <t>Design Registration module and introduced project theme</t>
-  </si>
-  <si>
     <t>https://github.com/chat-loc/chatloc.github.io/commit/20e1f9174e1e0fe7a9632a09e14cce2207b1dbb9</t>
   </si>
   <si>
@@ -164,6 +161,9 @@
   </si>
   <si>
     <t>Convert app to React II (Heroku MERN Deployment Reconfig)</t>
+  </si>
+  <si>
+    <t>Design Registration module and introduce project theme</t>
   </si>
 </sst>
 </file>
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -591,7 +591,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -673,10 +673,10 @@
         <v>200</v>
       </c>
       <c r="G8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -690,10 +690,10 @@
         <v>400</v>
       </c>
       <c r="G9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -707,10 +707,10 @@
         <v>85</v>
       </c>
       <c r="G10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -724,10 +724,10 @@
         <v>400</v>
       </c>
       <c r="G11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -738,10 +738,10 @@
         <v>44028</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -752,10 +752,10 @@
         <v>44028</v>
       </c>
       <c r="G13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -768,7 +768,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="4">
         <v>44023</v>
@@ -777,15 +777,15 @@
         <v>450</v>
       </c>
       <c r="G16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="4">
         <v>44032</v>
@@ -794,15 +794,15 @@
         <v>400</v>
       </c>
       <c r="G17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="4">
         <v>44014</v>
@@ -811,15 +811,15 @@
         <v>390</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="4">
         <v>44050</v>
@@ -828,15 +828,15 @@
         <v>250</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="4">
         <v>44051</v>
@@ -845,15 +845,15 @@
         <v>10</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="8">
@@ -866,12 +866,12 @@
       <c r="F24" s="6"/>
       <c r="G24" s="9"/>
       <c r="H24" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="8">
@@ -883,15 +883,15 @@
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="8">
@@ -903,15 +903,15 @@
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="8">
@@ -923,15 +923,15 @@
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="8">
         <v>44017</v>
@@ -940,15 +940,15 @@
         <v>200</v>
       </c>
       <c r="G28" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="8">
         <v>44018</v>
@@ -957,15 +957,15 @@
         <v>150</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="8">
         <v>44018</v>
@@ -974,10 +974,10 @@
         <v>120</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
